--- a/Predicted.xlsx
+++ b/Predicted.xlsx
@@ -13,8 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Results" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="42" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>Multicast</t>
-  </si>
-  <si>
-    <t>P2P (Unchunked)</t>
   </si>
   <si>
     <t>Total File Size</t>
@@ -44,20 +43,95 @@
     <t>Num Chunks</t>
   </si>
   <si>
-    <t>P2P (Chunked)</t>
-  </si>
-  <si>
     <t>Nodes</t>
   </si>
   <si>
-    <t>Serial</t>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>iperf Tests</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Attempt 1</t>
+  </si>
+  <si>
+    <t>Attempt 2</t>
+  </si>
+  <si>
+    <t>Attempt 3</t>
+  </si>
+  <si>
+    <t>Attempt 4</t>
+  </si>
+  <si>
+    <t>Attempt 5</t>
+  </si>
+  <si>
+    <t>Attempt 6</t>
+  </si>
+  <si>
+    <t>Attempt 7</t>
+  </si>
+  <si>
+    <t>Attempt 8</t>
+  </si>
+  <si>
+    <t>Attempt 9</t>
+  </si>
+  <si>
+    <t>Attempt 10</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Test 1: Serial (UDP)</t>
+  </si>
+  <si>
+    <t>Sum of Average</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Test 2: Multicast</t>
+  </si>
+  <si>
+    <t>Test 3: Herd P2P</t>
+  </si>
+  <si>
+    <t>Number of Nodes</t>
+  </si>
+  <si>
+    <t>Serial (Actual)</t>
+  </si>
+  <si>
+    <t>Multicast (Actual)</t>
+  </si>
+  <si>
+    <t>Herd P2P (Actual)</t>
+  </si>
+  <si>
+    <t>Serial (Predicted)</t>
+  </si>
+  <si>
+    <t>Multicast (Predicted)</t>
+  </si>
+  <si>
+    <t>P2P Unchunked (Predicted)</t>
+  </si>
+  <si>
+    <t>P2P Chunked (Predicted)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +139,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,12 +176,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,7 +243,7 @@
           <c:x val="6.3094415767011039E-2"/>
           <c:y val="2.416255222968296E-2"/>
           <c:w val="0.91716565400780659"/>
-          <c:h val="0.88736203390229196"/>
+          <c:h val="0.8697892686443407"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -144,7 +258,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Serial</c:v>
+                  <c:v>Serial (Predicted)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -152,7 +266,11 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -175,10 +293,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -190,19 +308,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>85.899345920000002</c:v>
                 </c:pt>
@@ -214,9 +329,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1288.4901887999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4294.9672959999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -232,7 +344,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Multicast</c:v>
+                  <c:v>Multicast (Predicted)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -240,7 +352,11 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -263,10 +379,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -278,19 +394,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$11</c:f>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>85.899345920000002</c:v>
                 </c:pt>
@@ -301,9 +414,6 @@
                   <c:v>85.899345920000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.899345920000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>85.899345920000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -320,7 +430,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P2P (Unchunked)</c:v>
+                  <c:v>P2P Unchunked (Predicted)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -328,7 +438,11 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -351,10 +465,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -366,19 +480,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$11</c:f>
+              <c:f>Sheet1!$D$7:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>85.899345920000002</c:v>
                 </c:pt>
@@ -390,9 +501,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>285.03370013115062</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>386.47879572226987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,7 +516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P2P (Chunked)</c:v>
+                  <c:v>P2P Chunked (Predicted)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -416,7 +524,11 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -439,10 +551,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -454,19 +566,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$11</c:f>
+              <c:f>Sheet1!$E$7:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>85.899345920000002</c:v>
                 </c:pt>
@@ -479,8 +588,257 @@
                 <c:pt idx="3">
                   <c:v>86.192947200000006</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>86.926950399999996</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial (Actual)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multicast (Actual)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Herd P2P (Actual)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87.223333333333343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.11500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.23333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,14 +853,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229626200"/>
-        <c:axId val="229626984"/>
+        <c:axId val="217301256"/>
+        <c:axId val="217300864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229626200"/>
+        <c:axId val="217301256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="15"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -606,12 +965,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229626984"/>
+        <c:crossAx val="217300864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229626984"/>
+        <c:axId val="217300864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -719,7 +1078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229626200"/>
+        <c:crossAx val="217301256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -737,10 +1096,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.483205446131793"/>
-          <c:y val="0.95414580621460154"/>
-          <c:w val="0.40679807507410765"/>
-          <c:h val="3.7067811156422867E-2"/>
+          <c:x val="0.37566084486352785"/>
+          <c:y val="0.93657304095665028"/>
+          <c:w val="0.56507989587721286"/>
+          <c:h val="6.1230363386105824E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -809,7 +1168,635 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Predicted.xlsx]Sheet3!PivotTable2</c:name>
+    <c:fmtId val="11"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 1: Serial (UDP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 2: Multicast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 3: Herd P2P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>87.223333333333343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.11500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.71000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107.23333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="530122680"/>
+        <c:axId val="530124640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="530122680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530124640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530124640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530122680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1365,20 +2352,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1398,6 +2888,281 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Adam Casey" refreshedDate="42054.804847222222" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="16">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A4:C20" sheet="Results"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Architecture" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Test 1: Serial (UDP)"/>
+        <s v="Test 2: Multicast"/>
+        <s v="Test 3: Herd P2P"/>
+        <m u="1"/>
+        <s v="Herd P2P" u="1"/>
+        <s v="Multicast" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nodes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50" count="7">
+        <n v="1"/>
+        <n v="5"/>
+        <n v="10"/>
+        <n v="15"/>
+        <n v="7"/>
+        <n v="11"/>
+        <n v="50" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Average" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="87.223333333333343" maxValue="1347"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="89.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="448.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="898"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1347"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="89.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="89.799999999999983"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="89.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="89.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="89.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="89.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="87.223333333333343"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="98.78"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="111.185"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="100.11500000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="114.71000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="107.23333333333335"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Number of Nodes">
+  <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item m="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Average" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1665,28 +3430,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1714,21 +3475,44 @@
         <v>85.899345920000002</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1751,6 +3535,15 @@
         <f>(E$2 * (F$2 + A7-1)) / H$2</f>
         <v>85.899345920000002</v>
       </c>
+      <c r="F7" s="6">
+        <v>89.8</v>
+      </c>
+      <c r="G7" s="6">
+        <v>89.7</v>
+      </c>
+      <c r="H7" s="6">
+        <v>87.223333333333343</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1772,6 +3565,15 @@
         <f>(E$2 * (F$2 + A8-1)) / H$2</f>
         <v>85.983232000000001</v>
       </c>
+      <c r="F8" s="6">
+        <v>448.25</v>
+      </c>
+      <c r="G8" s="6">
+        <v>89.799999999999983</v>
+      </c>
+      <c r="H8" s="6">
+        <v>98.78</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1793,6 +3595,15 @@
         <f>(E$2 * (F$2 + A9-1)) / H$2</f>
         <v>86.088089600000004</v>
       </c>
+      <c r="F9" s="6">
+        <v>898</v>
+      </c>
+      <c r="G9" s="6">
+        <v>89.75</v>
+      </c>
+      <c r="H9" s="6">
+        <v>100.11500000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1814,6 +3625,15 @@
         <f>(E$2 * (F$2 + A10-1)) / H$2</f>
         <v>86.192947200000006</v>
       </c>
+      <c r="F10" s="6">
+        <v>1347</v>
+      </c>
+      <c r="G10" s="6">
+        <v>89.7</v>
+      </c>
+      <c r="H10" s="6">
+        <v>107.23333333333335</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1835,9 +3655,537 @@
         <f>(E$2 * (F$2 + A11-1)) / H$2</f>
         <v>86.926950399999996</v>
       </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>89.8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>89.7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>87.223333333333343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>448.25</v>
+      </c>
+      <c r="C6" s="6">
+        <v>89.799999999999983</v>
+      </c>
+      <c r="D6" s="6">
+        <v>98.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>89.8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>111.185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>898</v>
+      </c>
+      <c r="C8" s="6">
+        <v>89.75</v>
+      </c>
+      <c r="D8" s="6">
+        <v>100.11500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>89.7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>114.71000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1347</v>
+      </c>
+      <c r="C10" s="6">
+        <v>89.7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>107.23333333333335</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <f>AVERAGE(D5:M5)</f>
+        <v>89.8</v>
+      </c>
+      <c r="D5">
+        <v>89.8</v>
+      </c>
+      <c r="E5">
+        <v>89.8</v>
+      </c>
+      <c r="F5">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:C8" si="0">AVERAGE(D6:M6)</f>
+        <v>448.25</v>
+      </c>
+      <c r="D6">
+        <v>447.5</v>
+      </c>
+      <c r="E6">
+        <v>447.8</v>
+      </c>
+      <c r="F6">
+        <v>448.1</v>
+      </c>
+      <c r="G6">
+        <v>448.5</v>
+      </c>
+      <c r="H6">
+        <v>448.6</v>
+      </c>
+      <c r="I6">
+        <v>448.8</v>
+      </c>
+      <c r="J6">
+        <v>447.5</v>
+      </c>
+      <c r="K6">
+        <v>448.5</v>
+      </c>
+      <c r="L6">
+        <v>448.8</v>
+      </c>
+      <c r="M6">
+        <v>448.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <f>AVERAGE(D7:M7)</f>
+        <v>898</v>
+      </c>
+      <c r="D7">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>1347</v>
+      </c>
+      <c r="D8">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <f>AVERAGE(D9:M9)</f>
+        <v>89.7</v>
+      </c>
+      <c r="D9">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <f>AVERAGE(D10:M10)</f>
+        <v>89.799999999999983</v>
+      </c>
+      <c r="D10">
+        <v>89.8</v>
+      </c>
+      <c r="E10">
+        <v>89.8</v>
+      </c>
+      <c r="F10">
+        <v>89.8</v>
+      </c>
+      <c r="G10">
+        <v>89.8</v>
+      </c>
+      <c r="H10">
+        <v>89.8</v>
+      </c>
+      <c r="I10">
+        <v>89.8</v>
+      </c>
+      <c r="J10">
+        <v>89.8</v>
+      </c>
+      <c r="K10">
+        <v>89.8</v>
+      </c>
+      <c r="L10">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <f>AVERAGE(D11:M11)</f>
+        <v>89.8</v>
+      </c>
+      <c r="D11">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <f>AVERAGE(D12:M12)</f>
+        <v>89.75</v>
+      </c>
+      <c r="D12">
+        <v>89.8</v>
+      </c>
+      <c r="E12">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <f>AVERAGE(D13:M13)</f>
+        <v>89.7</v>
+      </c>
+      <c r="D13">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <f>AVERAGE(D14:M14)</f>
+        <v>89.7</v>
+      </c>
+      <c r="D14">
+        <v>89.7</v>
+      </c>
+      <c r="E14">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <f>AVERAGE(D15:M15)</f>
+        <v>87.223333333333343</v>
+      </c>
+      <c r="D15">
+        <v>94.14</v>
+      </c>
+      <c r="E15">
+        <v>72.260000000000005</v>
+      </c>
+      <c r="F15">
+        <v>95.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <f>AVERAGE(D16:M16)</f>
+        <v>98.78</v>
+      </c>
+      <c r="D16">
+        <v>98.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <f>AVERAGE(D17:M17)</f>
+        <v>111.185</v>
+      </c>
+      <c r="D17">
+        <v>98.78</v>
+      </c>
+      <c r="E17">
+        <v>123.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3">
+        <f>AVERAGE(D18:M18)</f>
+        <v>100.11500000000001</v>
+      </c>
+      <c r="D18">
+        <v>100.11</v>
+      </c>
+      <c r="E18">
+        <v>100.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3">
+        <f>AVERAGE(D19:M19)</f>
+        <v>114.71000000000001</v>
+      </c>
+      <c r="D19">
+        <v>111.5</v>
+      </c>
+      <c r="E19">
+        <v>117.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3">
+        <f>AVERAGE(D20:M20)</f>
+        <v>107.23333333333335</v>
+      </c>
+      <c r="D20">
+        <v>106.73</v>
+      </c>
+      <c r="E20">
+        <v>109.68</v>
+      </c>
+      <c r="F20">
+        <v>105.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Predicted.xlsx
+++ b/Predicted.xlsx
@@ -3808,7 +3808,7 @@
   <dimension ref="A4:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
